--- a/Информация о структуре.xlsx
+++ b/Информация о структуре.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Общая структура" sheetId="1" r:id="rId1"/>
     <sheet name="Роли функций" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -2288,7 +2287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>printhelpbasic</t>
   </si>
@@ -2465,13 +2464,34 @@
   </si>
   <si>
     <t>В примечаниях - на какой строчке вызывается функция</t>
+  </si>
+  <si>
+    <t>Оригинал</t>
+  </si>
+  <si>
+    <t>Обновление</t>
+  </si>
+  <si>
+    <t>Запуск скрипта командой</t>
+  </si>
+  <si>
+    <t>Приветствие</t>
+  </si>
+  <si>
+    <t>Проверка наличия программ</t>
+  </si>
+  <si>
+    <t>Оповещение о HELP</t>
+  </si>
+  <si>
+    <t>ЛОГИЧЕСКАЯ ЦЕПОЧКА ДЕЙСТВИЙ ПРИ ЗАПУСКЕ ПРОГРАММЫ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2502,6 +2522,15 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Bahnschrift Light SemiCondensed"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="26"/>
       <color theme="1"/>
       <name val="Bahnschrift Light SemiCondensed"/>
@@ -2559,7 +2588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2722,11 +2751,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2782,6 +2839,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2800,6 +2894,42 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2818,24 +2948,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2854,58 +2966,22 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2926,6 +3002,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2935,6 +3017,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2944,34 +3062,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3275,8 +3365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CB111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3286,83 +3376,120 @@
   <sheetData>
     <row r="1" spans="2:35" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
-      <c r="S2" s="67" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
+      <c r="G2" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78"/>
+      <c r="S2" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="69"/>
-    </row>
-    <row r="3" spans="2:35" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="72"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="84"/>
+    </row>
+    <row r="3" spans="2:35" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="93"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="89"/>
+      <c r="AI3" s="90"/>
     </row>
     <row r="4" spans="2:35" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="75"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="81"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="87"/>
     </row>
     <row r="5" spans="2:35" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="15"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
+      <c r="G5" s="17"/>
+      <c r="Q5" s="18"/>
       <c r="S5" s="17"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
@@ -3382,25 +3509,40 @@
       <c r="AI5" s="18"/>
     </row>
     <row r="6" spans="2:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="18"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="31" t="s">
+      <c r="T6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="33"/>
-      <c r="Y6" s="31" t="s">
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="22"/>
+      <c r="Y6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="33"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="22"/>
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
       <c r="AE6" s="16"/>
@@ -3410,19 +3552,30 @@
       <c r="AI6" s="18"/>
     </row>
     <row r="7" spans="2:35" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="18"/>
       <c r="S7" s="17"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="36"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="36"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="25"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="25"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
       <c r="AE7" s="16"/>
@@ -3436,6 +3589,21 @@
       <c r="C8" s="15"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="18"/>
       <c r="S8" s="17"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
@@ -3459,6 +3627,17 @@
       <c r="C9" s="15"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="18"/>
       <c r="S9" s="17"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
@@ -3478,12 +3657,27 @@
       <c r="AI9" s="18"/>
     </row>
     <row r="10" spans="2:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="18"/>
       <c r="S10" s="17"/>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
@@ -3503,10 +3697,21 @@
       <c r="AI10" s="18"/>
     </row>
     <row r="11" spans="2:35" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="18"/>
       <c r="S11" s="17"/>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
@@ -3530,6 +3735,21 @@
       <c r="C12" s="15"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="18"/>
       <c r="S12" s="17"/>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
@@ -3553,6 +3773,17 @@
       <c r="C13" s="15"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="18"/>
       <c r="S13" s="17"/>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
@@ -3572,12 +3803,25 @@
       <c r="AI13" s="18"/>
     </row>
     <row r="14" spans="2:35" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="H14" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
       <c r="S14" s="2"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -3597,10 +3841,18 @@
       <c r="AI14" s="4"/>
     </row>
     <row r="15" spans="2:35" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
     </row>
     <row r="16" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
@@ -3615,18 +3867,18 @@
       <c r="E17" s="13"/>
     </row>
     <row r="18" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
@@ -3641,18 +3893,18 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
     </row>
     <row r="23" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
@@ -3667,40 +3919,40 @@
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="21"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34"/>
     </row>
     <row r="27" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="36"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="24"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="37"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C28" s="6"/>
@@ -3709,18 +3961,18 @@
       <c r="C29" s="6"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
     </row>
     <row r="31" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="37"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
@@ -3729,18 +3981,18 @@
       <c r="C33" s="6"/>
     </row>
     <row r="34" spans="2:80" x14ac:dyDescent="0.25">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" spans="2:80" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="36"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C36" s="6"/>
@@ -3749,54 +4001,54 @@
       <c r="C37" s="6"/>
     </row>
     <row r="38" spans="2:80" x14ac:dyDescent="0.25">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="31" t="s">
+      <c r="G38" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="22"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="31" t="s">
+      <c r="L38" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="33"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="22"/>
       <c r="P38" s="11"/>
-      <c r="Q38" s="31" t="s">
+      <c r="Q38" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="33"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="22"/>
       <c r="U38" s="11"/>
-      <c r="V38" s="31" t="s">
+      <c r="V38" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="33"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="22"/>
       <c r="Z38" s="11"/>
-      <c r="AA38" s="31" t="s">
+      <c r="AA38" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="33"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="21"/>
+      <c r="AD38" s="22"/>
       <c r="AE38" s="8"/>
-      <c r="AF38" s="19" t="s">
+      <c r="AF38" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="AG38" s="20"/>
-      <c r="AH38" s="20"/>
-      <c r="AI38" s="21"/>
+      <c r="AG38" s="33"/>
+      <c r="AH38" s="33"/>
+      <c r="AI38" s="34"/>
       <c r="AJ38" s="8"/>
       <c r="AK38" s="11"/>
       <c r="AL38" s="11"/>
@@ -3818,90 +4070,90 @@
       <c r="BB38" s="11"/>
       <c r="BC38" s="11"/>
       <c r="BD38" s="11"/>
-      <c r="BE38" s="31" t="s">
+      <c r="BE38" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="BF38" s="32"/>
-      <c r="BG38" s="32"/>
-      <c r="BH38" s="33"/>
+      <c r="BF38" s="21"/>
+      <c r="BG38" s="21"/>
+      <c r="BH38" s="22"/>
       <c r="BI38" s="9"/>
-      <c r="BJ38" s="31" t="s">
+      <c r="BJ38" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="BK38" s="32"/>
-      <c r="BL38" s="32"/>
-      <c r="BM38" s="33"/>
+      <c r="BK38" s="21"/>
+      <c r="BL38" s="21"/>
+      <c r="BM38" s="22"/>
       <c r="BN38" s="8"/>
-      <c r="BO38" s="31" t="s">
+      <c r="BO38" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="BP38" s="32"/>
-      <c r="BQ38" s="32"/>
-      <c r="BR38" s="33"/>
+      <c r="BP38" s="21"/>
+      <c r="BQ38" s="21"/>
+      <c r="BR38" s="22"/>
       <c r="BS38" s="10"/>
-      <c r="BT38" s="31" t="s">
+      <c r="BT38" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="BU38" s="32"/>
-      <c r="BV38" s="32"/>
-      <c r="BW38" s="33"/>
+      <c r="BU38" s="21"/>
+      <c r="BV38" s="21"/>
+      <c r="BW38" s="22"/>
       <c r="BX38" s="10"/>
-      <c r="BY38" s="31" t="s">
+      <c r="BY38" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="BZ38" s="32"/>
-      <c r="CA38" s="32"/>
-      <c r="CB38" s="33"/>
+      <c r="BZ38" s="21"/>
+      <c r="CA38" s="21"/>
+      <c r="CB38" s="22"/>
     </row>
     <row r="39" spans="2:80" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="34"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="36"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="36"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="36"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="36"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="36"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="36"/>
-      <c r="AF39" s="22"/>
-      <c r="AG39" s="23"/>
-      <c r="AH39" s="23"/>
-      <c r="AI39" s="24"/>
-      <c r="BE39" s="34"/>
-      <c r="BF39" s="35"/>
-      <c r="BG39" s="35"/>
-      <c r="BH39" s="36"/>
-      <c r="BJ39" s="34"/>
-      <c r="BK39" s="35"/>
-      <c r="BL39" s="35"/>
-      <c r="BM39" s="36"/>
-      <c r="BO39" s="34"/>
-      <c r="BP39" s="35"/>
-      <c r="BQ39" s="35"/>
-      <c r="BR39" s="36"/>
-      <c r="BT39" s="34"/>
-      <c r="BU39" s="35"/>
-      <c r="BV39" s="35"/>
-      <c r="BW39" s="36"/>
-      <c r="BY39" s="34"/>
-      <c r="BZ39" s="35"/>
-      <c r="CA39" s="35"/>
-      <c r="CB39" s="36"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="25"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="25"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="25"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="24"/>
+      <c r="AC39" s="24"/>
+      <c r="AD39" s="25"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="36"/>
+      <c r="AI39" s="37"/>
+      <c r="BE39" s="23"/>
+      <c r="BF39" s="24"/>
+      <c r="BG39" s="24"/>
+      <c r="BH39" s="25"/>
+      <c r="BJ39" s="23"/>
+      <c r="BK39" s="24"/>
+      <c r="BL39" s="24"/>
+      <c r="BM39" s="25"/>
+      <c r="BO39" s="23"/>
+      <c r="BP39" s="24"/>
+      <c r="BQ39" s="24"/>
+      <c r="BR39" s="25"/>
+      <c r="BT39" s="23"/>
+      <c r="BU39" s="24"/>
+      <c r="BV39" s="24"/>
+      <c r="BW39" s="25"/>
+      <c r="BY39" s="23"/>
+      <c r="BZ39" s="24"/>
+      <c r="CA39" s="24"/>
+      <c r="CB39" s="25"/>
     </row>
     <row r="40" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C40" s="6"/>
@@ -3918,58 +4170,58 @@
       <c r="BP41" s="7"/>
     </row>
     <row r="42" spans="2:80" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="G42" s="31" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="G42" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="33"/>
-      <c r="L42" s="19" t="s">
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="22"/>
+      <c r="L42" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="21"/>
-      <c r="BE42" s="43" t="s">
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="34"/>
+      <c r="BE42" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="BF42" s="44"/>
-      <c r="BG42" s="44"/>
-      <c r="BH42" s="45"/>
-      <c r="BO42" s="31" t="s">
+      <c r="BF42" s="39"/>
+      <c r="BG42" s="39"/>
+      <c r="BH42" s="40"/>
+      <c r="BO42" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="BP42" s="32"/>
-      <c r="BQ42" s="32"/>
-      <c r="BR42" s="33"/>
+      <c r="BP42" s="21"/>
+      <c r="BQ42" s="21"/>
+      <c r="BR42" s="22"/>
     </row>
     <row r="43" spans="2:80" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="34"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="36"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="36"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="24"/>
-      <c r="BE43" s="46"/>
-      <c r="BF43" s="47"/>
-      <c r="BG43" s="47"/>
-      <c r="BH43" s="48"/>
-      <c r="BO43" s="34"/>
-      <c r="BP43" s="35"/>
-      <c r="BQ43" s="35"/>
-      <c r="BR43" s="36"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="25"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="37"/>
+      <c r="BE43" s="41"/>
+      <c r="BF43" s="42"/>
+      <c r="BG43" s="42"/>
+      <c r="BH43" s="43"/>
+      <c r="BO43" s="23"/>
+      <c r="BP43" s="24"/>
+      <c r="BQ43" s="24"/>
+      <c r="BR43" s="25"/>
     </row>
     <row r="44" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C44" s="5"/>
@@ -3980,83 +4232,83 @@
       <c r="BF45" s="6"/>
     </row>
     <row r="46" spans="2:80" x14ac:dyDescent="0.25">
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="31" t="s">
+      <c r="G46" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="33"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="22"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="49" t="s">
+      <c r="L46" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="51"/>
-      <c r="BE46" s="31" t="s">
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="46"/>
+      <c r="BE46" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="BF46" s="32"/>
-      <c r="BG46" s="32"/>
-      <c r="BH46" s="33"/>
+      <c r="BF46" s="21"/>
+      <c r="BG46" s="21"/>
+      <c r="BH46" s="22"/>
       <c r="BI46" s="10"/>
-      <c r="BJ46" s="25" t="s">
+      <c r="BJ46" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="BK46" s="26"/>
-      <c r="BL46" s="26"/>
-      <c r="BM46" s="27"/>
+      <c r="BK46" s="51"/>
+      <c r="BL46" s="51"/>
+      <c r="BM46" s="52"/>
       <c r="BN46" s="10"/>
-      <c r="BO46" s="31" t="s">
+      <c r="BO46" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="BP46" s="32"/>
-      <c r="BQ46" s="32"/>
-      <c r="BR46" s="33"/>
+      <c r="BP46" s="21"/>
+      <c r="BQ46" s="21"/>
+      <c r="BR46" s="22"/>
       <c r="BS46" s="10"/>
-      <c r="BT46" s="76" t="s">
+      <c r="BT46" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="BU46" s="77"/>
-      <c r="BV46" s="77"/>
-      <c r="BW46" s="78"/>
+      <c r="BU46" s="63"/>
+      <c r="BV46" s="63"/>
+      <c r="BW46" s="64"/>
     </row>
     <row r="47" spans="2:80" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="34"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="36"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="36"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="54"/>
-      <c r="BE47" s="34"/>
-      <c r="BF47" s="35"/>
-      <c r="BG47" s="35"/>
-      <c r="BH47" s="36"/>
-      <c r="BJ47" s="28"/>
-      <c r="BK47" s="29"/>
-      <c r="BL47" s="29"/>
-      <c r="BM47" s="30"/>
-      <c r="BO47" s="34"/>
-      <c r="BP47" s="35"/>
-      <c r="BQ47" s="35"/>
-      <c r="BR47" s="36"/>
-      <c r="BT47" s="79"/>
-      <c r="BU47" s="80"/>
-      <c r="BV47" s="80"/>
-      <c r="BW47" s="81"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="25"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="49"/>
+      <c r="BE47" s="23"/>
+      <c r="BF47" s="24"/>
+      <c r="BG47" s="24"/>
+      <c r="BH47" s="25"/>
+      <c r="BJ47" s="53"/>
+      <c r="BK47" s="54"/>
+      <c r="BL47" s="54"/>
+      <c r="BM47" s="55"/>
+      <c r="BO47" s="23"/>
+      <c r="BP47" s="24"/>
+      <c r="BQ47" s="24"/>
+      <c r="BR47" s="25"/>
+      <c r="BT47" s="65"/>
+      <c r="BU47" s="66"/>
+      <c r="BV47" s="66"/>
+      <c r="BW47" s="67"/>
     </row>
     <row r="48" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C48" s="5"/>
@@ -4072,39 +4324,39 @@
     </row>
     <row r="50" spans="2:75" x14ac:dyDescent="0.25">
       <c r="C50" s="6"/>
-      <c r="G50" s="55" t="s">
+      <c r="G50" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="57"/>
-      <c r="BE50" s="31" t="s">
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="28"/>
+      <c r="BE50" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="BF50" s="32"/>
-      <c r="BG50" s="32"/>
-      <c r="BH50" s="33"/>
-      <c r="BT50" s="76" t="s">
+      <c r="BF50" s="21"/>
+      <c r="BG50" s="21"/>
+      <c r="BH50" s="22"/>
+      <c r="BT50" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="BU50" s="77"/>
-      <c r="BV50" s="77"/>
-      <c r="BW50" s="78"/>
+      <c r="BU50" s="63"/>
+      <c r="BV50" s="63"/>
+      <c r="BW50" s="64"/>
     </row>
     <row r="51" spans="2:75" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="6"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="60"/>
-      <c r="BE51" s="34"/>
-      <c r="BF51" s="35"/>
-      <c r="BG51" s="35"/>
-      <c r="BH51" s="36"/>
-      <c r="BT51" s="79"/>
-      <c r="BU51" s="80"/>
-      <c r="BV51" s="80"/>
-      <c r="BW51" s="81"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="31"/>
+      <c r="BE51" s="23"/>
+      <c r="BF51" s="24"/>
+      <c r="BG51" s="24"/>
+      <c r="BH51" s="25"/>
+      <c r="BT51" s="65"/>
+      <c r="BU51" s="66"/>
+      <c r="BV51" s="66"/>
+      <c r="BW51" s="67"/>
     </row>
     <row r="52" spans="2:75" x14ac:dyDescent="0.25">
       <c r="C52" s="6"/>
@@ -4117,115 +4369,115 @@
       <c r="BU53" s="7"/>
     </row>
     <row r="54" spans="2:75" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="27"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="52"/>
       <c r="K54" s="10"/>
-      <c r="L54" s="43" t="s">
+      <c r="L54" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="M54" s="44"/>
-      <c r="N54" s="44"/>
-      <c r="O54" s="45"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="40"/>
       <c r="P54" s="10"/>
-      <c r="Q54" s="49" t="s">
+      <c r="Q54" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="R54" s="50"/>
-      <c r="S54" s="50"/>
-      <c r="T54" s="51"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="45"/>
+      <c r="T54" s="46"/>
       <c r="U54" s="10"/>
-      <c r="V54" s="37" t="s">
+      <c r="V54" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="W54" s="38"/>
-      <c r="X54" s="38"/>
-      <c r="Y54" s="39"/>
+      <c r="W54" s="57"/>
+      <c r="X54" s="57"/>
+      <c r="Y54" s="58"/>
       <c r="Z54" s="10"/>
-      <c r="AA54" s="55" t="s">
+      <c r="AA54" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AB54" s="56"/>
-      <c r="AC54" s="56"/>
-      <c r="AD54" s="57"/>
+      <c r="AB54" s="27"/>
+      <c r="AC54" s="27"/>
+      <c r="AD54" s="28"/>
       <c r="AE54" s="10"/>
-      <c r="AF54" s="37" t="s">
+      <c r="AF54" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="AG54" s="38"/>
-      <c r="AH54" s="38"/>
-      <c r="AI54" s="39"/>
-      <c r="BE54" s="31" t="s">
+      <c r="AG54" s="57"/>
+      <c r="AH54" s="57"/>
+      <c r="AI54" s="58"/>
+      <c r="BE54" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BF54" s="32"/>
-      <c r="BG54" s="32"/>
-      <c r="BH54" s="33"/>
+      <c r="BF54" s="21"/>
+      <c r="BG54" s="21"/>
+      <c r="BH54" s="22"/>
       <c r="BI54" s="8"/>
-      <c r="BJ54" s="19" t="s">
+      <c r="BJ54" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="BK54" s="20"/>
-      <c r="BL54" s="20"/>
-      <c r="BM54" s="21"/>
-      <c r="BT54" s="43" t="s">
+      <c r="BK54" s="33"/>
+      <c r="BL54" s="33"/>
+      <c r="BM54" s="34"/>
+      <c r="BT54" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="BU54" s="44"/>
-      <c r="BV54" s="44"/>
-      <c r="BW54" s="45"/>
+      <c r="BU54" s="39"/>
+      <c r="BV54" s="39"/>
+      <c r="BW54" s="40"/>
     </row>
     <row r="55" spans="2:75" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="34"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="36"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="30"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="48"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="53"/>
-      <c r="S55" s="53"/>
-      <c r="T55" s="54"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="41"/>
-      <c r="X55" s="41"/>
-      <c r="Y55" s="42"/>
-      <c r="AA55" s="58"/>
-      <c r="AB55" s="59"/>
-      <c r="AC55" s="59"/>
-      <c r="AD55" s="60"/>
-      <c r="AF55" s="40"/>
-      <c r="AG55" s="41"/>
-      <c r="AH55" s="41"/>
-      <c r="AI55" s="42"/>
-      <c r="BE55" s="34"/>
-      <c r="BF55" s="35"/>
-      <c r="BG55" s="35"/>
-      <c r="BH55" s="36"/>
-      <c r="BJ55" s="22"/>
-      <c r="BK55" s="23"/>
-      <c r="BL55" s="23"/>
-      <c r="BM55" s="24"/>
-      <c r="BT55" s="46"/>
-      <c r="BU55" s="47"/>
-      <c r="BV55" s="47"/>
-      <c r="BW55" s="48"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="25"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="55"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="43"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="49"/>
+      <c r="V55" s="59"/>
+      <c r="W55" s="60"/>
+      <c r="X55" s="60"/>
+      <c r="Y55" s="61"/>
+      <c r="AA55" s="29"/>
+      <c r="AB55" s="30"/>
+      <c r="AC55" s="30"/>
+      <c r="AD55" s="31"/>
+      <c r="AF55" s="59"/>
+      <c r="AG55" s="60"/>
+      <c r="AH55" s="60"/>
+      <c r="AI55" s="61"/>
+      <c r="BE55" s="23"/>
+      <c r="BF55" s="24"/>
+      <c r="BG55" s="24"/>
+      <c r="BH55" s="25"/>
+      <c r="BJ55" s="35"/>
+      <c r="BK55" s="36"/>
+      <c r="BL55" s="36"/>
+      <c r="BM55" s="37"/>
+      <c r="BT55" s="41"/>
+      <c r="BU55" s="42"/>
+      <c r="BV55" s="42"/>
+      <c r="BW55" s="43"/>
     </row>
     <row r="56" spans="2:75" x14ac:dyDescent="0.25">
       <c r="C56" s="6"/>
@@ -4236,171 +4488,171 @@
       <c r="BF57" s="7"/>
     </row>
     <row r="58" spans="2:75" x14ac:dyDescent="0.25">
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="33"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="22"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="31" t="s">
+      <c r="G58" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="33"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="22"/>
       <c r="K58" s="10"/>
-      <c r="L58" s="31" t="s">
+      <c r="L58" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="33"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="22"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="25" t="s">
+      <c r="Q58" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="R58" s="26"/>
-      <c r="S58" s="26"/>
-      <c r="T58" s="27"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="51"/>
+      <c r="T58" s="52"/>
       <c r="U58" s="11"/>
-      <c r="V58" s="43" t="s">
+      <c r="V58" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="W58" s="44"/>
-      <c r="X58" s="44"/>
-      <c r="Y58" s="45"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="39"/>
+      <c r="Y58" s="40"/>
       <c r="Z58" s="9"/>
-      <c r="AA58" s="49" t="s">
+      <c r="AA58" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB58" s="50"/>
-      <c r="AC58" s="50"/>
-      <c r="AD58" s="51"/>
+      <c r="AB58" s="45"/>
+      <c r="AC58" s="45"/>
+      <c r="AD58" s="46"/>
       <c r="AE58" s="10"/>
-      <c r="AF58" s="37" t="s">
+      <c r="AF58" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AG58" s="38"/>
-      <c r="AH58" s="38"/>
-      <c r="AI58" s="39"/>
+      <c r="AG58" s="57"/>
+      <c r="AH58" s="57"/>
+      <c r="AI58" s="58"/>
       <c r="AJ58" s="10"/>
-      <c r="AK58" s="31" t="s">
+      <c r="AK58" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AL58" s="32"/>
-      <c r="AM58" s="32"/>
-      <c r="AN58" s="33"/>
+      <c r="AL58" s="21"/>
+      <c r="AM58" s="21"/>
+      <c r="AN58" s="22"/>
       <c r="AO58" s="10"/>
-      <c r="AP58" s="25" t="s">
+      <c r="AP58" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AQ58" s="26"/>
-      <c r="AR58" s="26"/>
-      <c r="AS58" s="27"/>
+      <c r="AQ58" s="51"/>
+      <c r="AR58" s="51"/>
+      <c r="AS58" s="52"/>
       <c r="AT58" s="10"/>
-      <c r="AU58" s="55" t="s">
+      <c r="AU58" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AV58" s="56"/>
-      <c r="AW58" s="56"/>
-      <c r="AX58" s="57"/>
+      <c r="AV58" s="27"/>
+      <c r="AW58" s="27"/>
+      <c r="AX58" s="28"/>
       <c r="AY58" s="10"/>
-      <c r="AZ58" s="37" t="s">
+      <c r="AZ58" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="BA58" s="38"/>
-      <c r="BB58" s="38"/>
-      <c r="BC58" s="39"/>
-      <c r="BE58" s="31" t="s">
+      <c r="BA58" s="57"/>
+      <c r="BB58" s="57"/>
+      <c r="BC58" s="58"/>
+      <c r="BE58" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="BF58" s="32"/>
-      <c r="BG58" s="32"/>
-      <c r="BH58" s="33"/>
+      <c r="BF58" s="21"/>
+      <c r="BG58" s="21"/>
+      <c r="BH58" s="22"/>
       <c r="BI58" s="10"/>
-      <c r="BJ58" s="31" t="s">
+      <c r="BJ58" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="BK58" s="32"/>
-      <c r="BL58" s="32"/>
-      <c r="BM58" s="33"/>
+      <c r="BK58" s="21"/>
+      <c r="BL58" s="21"/>
+      <c r="BM58" s="22"/>
       <c r="BN58" s="10"/>
-      <c r="BO58" s="55" t="s">
+      <c r="BO58" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="BP58" s="56"/>
-      <c r="BQ58" s="56"/>
-      <c r="BR58" s="57"/>
+      <c r="BP58" s="27"/>
+      <c r="BQ58" s="27"/>
+      <c r="BR58" s="28"/>
       <c r="BS58" s="10"/>
-      <c r="BT58" s="19" t="s">
+      <c r="BT58" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="BU58" s="20"/>
-      <c r="BV58" s="20"/>
-      <c r="BW58" s="21"/>
+      <c r="BU58" s="33"/>
+      <c r="BV58" s="33"/>
+      <c r="BW58" s="34"/>
     </row>
     <row r="59" spans="2:75" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="34"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="36"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="36"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="36"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="29"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="30"/>
-      <c r="V59" s="46"/>
-      <c r="W59" s="47"/>
-      <c r="X59" s="47"/>
-      <c r="Y59" s="48"/>
-      <c r="AA59" s="52"/>
-      <c r="AB59" s="53"/>
-      <c r="AC59" s="53"/>
-      <c r="AD59" s="54"/>
-      <c r="AF59" s="40"/>
-      <c r="AG59" s="41"/>
-      <c r="AH59" s="41"/>
-      <c r="AI59" s="42"/>
-      <c r="AK59" s="34"/>
-      <c r="AL59" s="35"/>
-      <c r="AM59" s="35"/>
-      <c r="AN59" s="36"/>
-      <c r="AP59" s="28"/>
-      <c r="AQ59" s="29"/>
-      <c r="AR59" s="29"/>
-      <c r="AS59" s="30"/>
-      <c r="AU59" s="58"/>
-      <c r="AV59" s="59"/>
-      <c r="AW59" s="59"/>
-      <c r="AX59" s="60"/>
-      <c r="AZ59" s="40"/>
-      <c r="BA59" s="41"/>
-      <c r="BB59" s="41"/>
-      <c r="BC59" s="42"/>
-      <c r="BE59" s="34"/>
-      <c r="BF59" s="35"/>
-      <c r="BG59" s="35"/>
-      <c r="BH59" s="36"/>
-      <c r="BJ59" s="34"/>
-      <c r="BK59" s="35"/>
-      <c r="BL59" s="35"/>
-      <c r="BM59" s="36"/>
-      <c r="BO59" s="58"/>
-      <c r="BP59" s="59"/>
-      <c r="BQ59" s="59"/>
-      <c r="BR59" s="60"/>
-      <c r="BT59" s="22"/>
-      <c r="BU59" s="23"/>
-      <c r="BV59" s="23"/>
-      <c r="BW59" s="24"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="25"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="25"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="25"/>
+      <c r="Q59" s="53"/>
+      <c r="R59" s="54"/>
+      <c r="S59" s="54"/>
+      <c r="T59" s="55"/>
+      <c r="V59" s="41"/>
+      <c r="W59" s="42"/>
+      <c r="X59" s="42"/>
+      <c r="Y59" s="43"/>
+      <c r="AA59" s="47"/>
+      <c r="AB59" s="48"/>
+      <c r="AC59" s="48"/>
+      <c r="AD59" s="49"/>
+      <c r="AF59" s="59"/>
+      <c r="AG59" s="60"/>
+      <c r="AH59" s="60"/>
+      <c r="AI59" s="61"/>
+      <c r="AK59" s="23"/>
+      <c r="AL59" s="24"/>
+      <c r="AM59" s="24"/>
+      <c r="AN59" s="25"/>
+      <c r="AP59" s="53"/>
+      <c r="AQ59" s="54"/>
+      <c r="AR59" s="54"/>
+      <c r="AS59" s="55"/>
+      <c r="AU59" s="29"/>
+      <c r="AV59" s="30"/>
+      <c r="AW59" s="30"/>
+      <c r="AX59" s="31"/>
+      <c r="AZ59" s="59"/>
+      <c r="BA59" s="60"/>
+      <c r="BB59" s="60"/>
+      <c r="BC59" s="61"/>
+      <c r="BE59" s="23"/>
+      <c r="BF59" s="24"/>
+      <c r="BG59" s="24"/>
+      <c r="BH59" s="25"/>
+      <c r="BJ59" s="23"/>
+      <c r="BK59" s="24"/>
+      <c r="BL59" s="24"/>
+      <c r="BM59" s="25"/>
+      <c r="BO59" s="29"/>
+      <c r="BP59" s="30"/>
+      <c r="BQ59" s="30"/>
+      <c r="BR59" s="31"/>
+      <c r="BT59" s="35"/>
+      <c r="BU59" s="36"/>
+      <c r="BV59" s="36"/>
+      <c r="BW59" s="37"/>
     </row>
     <row r="60" spans="2:75" x14ac:dyDescent="0.25">
       <c r="C60" s="5"/>
@@ -4411,72 +4663,72 @@
       <c r="AL61" s="7"/>
     </row>
     <row r="62" spans="2:75" x14ac:dyDescent="0.25">
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="33"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="55" t="s">
+      <c r="G62" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="57"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="28"/>
       <c r="K62" s="10"/>
-      <c r="L62" s="19" t="s">
+      <c r="L62" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="21"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="34"/>
       <c r="P62" s="10"/>
-      <c r="Q62" s="31" t="s">
+      <c r="Q62" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-      <c r="T62" s="33"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="22"/>
       <c r="U62" s="8"/>
-      <c r="V62" s="31" t="s">
+      <c r="V62" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="W62" s="32"/>
-      <c r="X62" s="32"/>
-      <c r="Y62" s="33"/>
-      <c r="AK62" s="37" t="s">
+      <c r="W62" s="21"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="22"/>
+      <c r="AK62" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AL62" s="38"/>
-      <c r="AM62" s="38"/>
-      <c r="AN62" s="39"/>
+      <c r="AL62" s="57"/>
+      <c r="AM62" s="57"/>
+      <c r="AN62" s="58"/>
     </row>
     <row r="63" spans="2:75" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="34"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="36"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="60"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="24"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="36"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="35"/>
-      <c r="Y63" s="36"/>
-      <c r="AK63" s="40"/>
-      <c r="AL63" s="41"/>
-      <c r="AM63" s="41"/>
-      <c r="AN63" s="42"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="25"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="31"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="37"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="25"/>
+      <c r="V63" s="23"/>
+      <c r="W63" s="24"/>
+      <c r="X63" s="24"/>
+      <c r="Y63" s="25"/>
+      <c r="AK63" s="59"/>
+      <c r="AL63" s="60"/>
+      <c r="AM63" s="60"/>
+      <c r="AN63" s="61"/>
     </row>
     <row r="64" spans="2:75" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="5"/>
@@ -4485,29 +4737,29 @@
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="33"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="22"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="37" t="s">
+      <c r="G66" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="39"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="58"/>
     </row>
     <row r="67" spans="2:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="34"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="36"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="42"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="25"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="61"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C68" s="5"/>
@@ -4516,29 +4768,29 @@
       <c r="C69" s="6"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="33"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="22"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="19" t="s">
+      <c r="G70" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="21"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="34"/>
     </row>
     <row r="71" spans="2:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="34"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="36"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="24"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="25"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="37"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C72" s="6"/>
@@ -4555,18 +4807,18 @@
       <c r="P73" s="12"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="33"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="22"/>
     </row>
     <row r="75" spans="2:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="34"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="36"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="25"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C76" s="5"/>
@@ -4575,40 +4827,40 @@
       <c r="C77" s="6"/>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="27"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="52"/>
       <c r="F78" s="10"/>
-      <c r="G78" s="55" t="s">
+      <c r="G78" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="57"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="28"/>
       <c r="K78" s="10"/>
-      <c r="L78" s="19" t="s">
+      <c r="L78" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="M78" s="20"/>
-      <c r="N78" s="20"/>
-      <c r="O78" s="21"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="34"/>
     </row>
     <row r="79" spans="2:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="28"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="30"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="60"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="23"/>
-      <c r="N79" s="23"/>
-      <c r="O79" s="24"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="55"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="31"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="37"/>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
@@ -4617,29 +4869,29 @@
       <c r="C81" s="6"/>
     </row>
     <row r="82" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="45"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="40"/>
       <c r="F82" s="10"/>
-      <c r="G82" s="31" t="s">
+      <c r="G82" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="33"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="22"/>
     </row>
     <row r="83" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="46"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="48"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="36"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="43"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="25"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C84" s="6"/>
@@ -4648,18 +4900,18 @@
       <c r="C85" s="6"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="49" t="s">
+      <c r="B86" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="51"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="46"/>
     </row>
     <row r="87" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="52"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="54"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="49"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C88" s="5"/>
@@ -4668,18 +4920,18 @@
       <c r="C89" s="6"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="57"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="28"/>
     </row>
     <row r="91" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="58"/>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="60"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="31"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C92" s="5"/>
@@ -4688,18 +4940,18 @@
       <c r="C93" s="6"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B94" s="37" t="s">
+      <c r="B94" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="39"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="58"/>
     </row>
     <row r="95" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="40"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="42"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="61"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C96" s="5"/>
@@ -4708,18 +4960,18 @@
       <c r="C97" s="7"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="33"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="22"/>
     </row>
     <row r="99" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="34"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="36"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="25"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C100" s="5"/>
@@ -4728,18 +4980,18 @@
       <c r="C101" s="7"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="33"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="22"/>
     </row>
     <row r="103" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="34"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="36"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="25"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C104" s="5"/>
@@ -4748,18 +5000,18 @@
       <c r="C105" s="7"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="25" t="s">
+      <c r="B106" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="27"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="51"/>
+      <c r="E106" s="52"/>
     </row>
     <row r="107" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="28"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="30"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="55"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C108" s="5"/>
@@ -4768,55 +5020,71 @@
       <c r="C109" s="7"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="31" t="s">
+      <c r="B110" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="33"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="22"/>
     </row>
     <row r="111" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="34"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="36"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="B34:E35"/>
-    <mergeCell ref="B18:E19"/>
-    <mergeCell ref="BE58:BH59"/>
-    <mergeCell ref="BJ54:BM55"/>
-    <mergeCell ref="BT54:BW55"/>
-    <mergeCell ref="L38:O39"/>
-    <mergeCell ref="L42:O43"/>
-    <mergeCell ref="L26:O27"/>
-    <mergeCell ref="B66:E67"/>
-    <mergeCell ref="BJ58:BM59"/>
-    <mergeCell ref="L46:O47"/>
-    <mergeCell ref="G62:J63"/>
-    <mergeCell ref="BJ46:BM47"/>
-    <mergeCell ref="BE54:BH55"/>
-    <mergeCell ref="G50:J51"/>
-    <mergeCell ref="V54:Y55"/>
-    <mergeCell ref="G54:J55"/>
-    <mergeCell ref="L54:O55"/>
-    <mergeCell ref="AA54:AD55"/>
-    <mergeCell ref="Q54:T55"/>
-    <mergeCell ref="AF54:AI55"/>
-    <mergeCell ref="BY38:CB39"/>
-    <mergeCell ref="BJ38:BM39"/>
-    <mergeCell ref="AA38:AD39"/>
-    <mergeCell ref="BE38:BH39"/>
-    <mergeCell ref="BE50:BH51"/>
-    <mergeCell ref="BO38:BR39"/>
-    <mergeCell ref="BT38:BW39"/>
-    <mergeCell ref="BO42:BR43"/>
-    <mergeCell ref="BO46:BR47"/>
-    <mergeCell ref="BE46:BH47"/>
-    <mergeCell ref="BT46:BW47"/>
-    <mergeCell ref="BE42:BH43"/>
-    <mergeCell ref="BT50:BW51"/>
+  <mergeCells count="100">
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="M12:P13"/>
+    <mergeCell ref="G2:Q4"/>
+    <mergeCell ref="G70:J71"/>
+    <mergeCell ref="L78:O79"/>
+    <mergeCell ref="BT58:BW59"/>
+    <mergeCell ref="B106:E107"/>
+    <mergeCell ref="Q58:T59"/>
+    <mergeCell ref="AK58:AN59"/>
+    <mergeCell ref="Q62:T63"/>
+    <mergeCell ref="AF58:AI59"/>
+    <mergeCell ref="AK62:AN63"/>
+    <mergeCell ref="AP58:AS59"/>
+    <mergeCell ref="V58:Y59"/>
+    <mergeCell ref="AA58:AD59"/>
+    <mergeCell ref="AU58:AX59"/>
+    <mergeCell ref="AZ58:BC59"/>
+    <mergeCell ref="BO58:BR59"/>
+    <mergeCell ref="L62:O63"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="G78:J79"/>
+    <mergeCell ref="B70:E71"/>
+    <mergeCell ref="B74:E75"/>
+    <mergeCell ref="B46:E47"/>
+    <mergeCell ref="B54:E55"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="G66:J67"/>
+    <mergeCell ref="G58:J59"/>
+    <mergeCell ref="B58:E59"/>
+    <mergeCell ref="B62:E63"/>
+    <mergeCell ref="B26:E27"/>
+    <mergeCell ref="B30:E31"/>
+    <mergeCell ref="S2:AI4"/>
+    <mergeCell ref="G46:J47"/>
+    <mergeCell ref="Y6:AB7"/>
+    <mergeCell ref="T6:W7"/>
+    <mergeCell ref="AF38:AI39"/>
+    <mergeCell ref="G42:J43"/>
+    <mergeCell ref="G26:J27"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="M6:P7"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="M8:P9"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="M10:P11"/>
+    <mergeCell ref="M14:P15"/>
     <mergeCell ref="B110:E111"/>
     <mergeCell ref="V38:Y39"/>
     <mergeCell ref="Q38:T39"/>
@@ -4833,45 +5101,40 @@
     <mergeCell ref="B90:E91"/>
     <mergeCell ref="B94:E95"/>
     <mergeCell ref="L58:O59"/>
-    <mergeCell ref="S2:AI4"/>
-    <mergeCell ref="G46:J47"/>
-    <mergeCell ref="Y6:AB7"/>
-    <mergeCell ref="T6:W7"/>
-    <mergeCell ref="AF38:AI39"/>
-    <mergeCell ref="G42:J43"/>
-    <mergeCell ref="G26:J27"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="G78:J79"/>
-    <mergeCell ref="B70:E71"/>
-    <mergeCell ref="B74:E75"/>
-    <mergeCell ref="B46:E47"/>
-    <mergeCell ref="B54:E55"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="G66:J67"/>
-    <mergeCell ref="G58:J59"/>
-    <mergeCell ref="B58:E59"/>
-    <mergeCell ref="B62:E63"/>
-    <mergeCell ref="B26:E27"/>
-    <mergeCell ref="B30:E31"/>
-    <mergeCell ref="G70:J71"/>
-    <mergeCell ref="L78:O79"/>
-    <mergeCell ref="BT58:BW59"/>
-    <mergeCell ref="B106:E107"/>
-    <mergeCell ref="Q58:T59"/>
-    <mergeCell ref="AK58:AN59"/>
-    <mergeCell ref="Q62:T63"/>
-    <mergeCell ref="AF58:AI59"/>
-    <mergeCell ref="AK62:AN63"/>
-    <mergeCell ref="AP58:AS59"/>
-    <mergeCell ref="V58:Y59"/>
-    <mergeCell ref="AA58:AD59"/>
-    <mergeCell ref="AU58:AX59"/>
-    <mergeCell ref="AZ58:BC59"/>
-    <mergeCell ref="BO58:BR59"/>
-    <mergeCell ref="L62:O63"/>
+    <mergeCell ref="BY38:CB39"/>
+    <mergeCell ref="BJ38:BM39"/>
+    <mergeCell ref="AA38:AD39"/>
+    <mergeCell ref="BE38:BH39"/>
+    <mergeCell ref="BE50:BH51"/>
+    <mergeCell ref="BO38:BR39"/>
+    <mergeCell ref="BT38:BW39"/>
+    <mergeCell ref="BO42:BR43"/>
+    <mergeCell ref="BO46:BR47"/>
+    <mergeCell ref="BE46:BH47"/>
+    <mergeCell ref="BT46:BW47"/>
+    <mergeCell ref="BE42:BH43"/>
+    <mergeCell ref="BT50:BW51"/>
+    <mergeCell ref="B66:E67"/>
+    <mergeCell ref="BJ58:BM59"/>
+    <mergeCell ref="L46:O47"/>
+    <mergeCell ref="G62:J63"/>
+    <mergeCell ref="BJ46:BM47"/>
+    <mergeCell ref="BE54:BH55"/>
+    <mergeCell ref="G50:J51"/>
+    <mergeCell ref="V54:Y55"/>
+    <mergeCell ref="G54:J55"/>
+    <mergeCell ref="L54:O55"/>
+    <mergeCell ref="AA54:AD55"/>
+    <mergeCell ref="Q54:T55"/>
+    <mergeCell ref="AF54:AI55"/>
+    <mergeCell ref="B34:E35"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="BE58:BH59"/>
+    <mergeCell ref="BJ54:BM55"/>
+    <mergeCell ref="BT54:BW55"/>
+    <mergeCell ref="L38:O39"/>
+    <mergeCell ref="L42:O43"/>
+    <mergeCell ref="L26:O27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4882,27 +5145,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="82"/>
+    <col min="1" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Информация о структуре.xlsx
+++ b/Информация о структуре.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Общая структура" sheetId="1" r:id="rId1"/>
-    <sheet name="Роли функций" sheetId="2" r:id="rId2"/>
+    <sheet name="Готовность" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -2286,8 +2286,174 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+225, 255, 260</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+238</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+245</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+270, 280, 290, 310, 1427, 1428, 1490, 3907, 3946</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+503, 2519, 2522, 2536</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+540</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="69">
   <si>
     <t>printhelpbasic</t>
   </si>
@@ -2485,13 +2651,22 @@
   </si>
   <si>
     <t>ЛОГИЧЕСКАЯ ЦЕПОЧКА ДЕЙСТВИЙ ПРИ ЗАПУСКЕ ПРОГРАММЫ</t>
+  </si>
+  <si>
+    <t>ОБОЗНАЧЕНИЯ</t>
+  </si>
+  <si>
+    <t>УДАЛЕНО</t>
+  </si>
+  <si>
+    <t>ГОТОВО</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2537,8 +2712,24 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2585,6 +2776,16 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2780,10 +2981,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2840,6 +3043,75 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2858,6 +3130,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2876,94 +3202,49 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2984,87 +3265,83 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3365,8 +3642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3376,95 +3653,95 @@
   <sheetData>
     <row r="1" spans="2:35" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
-      <c r="G2" s="76" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="G2" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="78"/>
-      <c r="S2" s="82" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="24"/>
+      <c r="S2" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="84"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="81"/>
     </row>
     <row r="3" spans="2:35" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="93"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="89"/>
-      <c r="AI3" s="90"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="27"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="84"/>
     </row>
     <row r="4" spans="2:35" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="81"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="30"/>
       <c r="S4" s="85"/>
       <c r="T4" s="86"/>
       <c r="U4" s="86"/>
@@ -3509,40 +3786,40 @@
       <c r="AI5" s="18"/>
     </row>
     <row r="6" spans="2:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="22"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="45"/>
       <c r="Q6" s="18"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="20" t="s">
+      <c r="T6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="22"/>
-      <c r="Y6" s="20" t="s">
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="45"/>
+      <c r="Y6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="22"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="45"/>
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
       <c r="AE6" s="16"/>
@@ -3552,30 +3829,30 @@
       <c r="AI6" s="18"/>
     </row>
     <row r="7" spans="2:35" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="71"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
       <c r="L7" s="16"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="25"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="48"/>
       <c r="Q7" s="18"/>
       <c r="S7" s="17"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="25"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="25"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="48"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="48"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
       <c r="AE7" s="16"/>
@@ -3590,19 +3867,19 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="74" t="s">
+      <c r="M8" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
       <c r="Q8" s="18"/>
       <c r="S8" s="17"/>
       <c r="T8" s="16"/>
@@ -3628,15 +3905,15 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
       <c r="Q9" s="18"/>
       <c r="S9" s="17"/>
       <c r="T9" s="16"/>
@@ -3657,26 +3934,26 @@
       <c r="AI9" s="18"/>
     </row>
     <row r="10" spans="2:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="75" t="s">
+      <c r="H10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="75" t="s">
+      <c r="M10" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
       <c r="Q10" s="18"/>
       <c r="S10" s="17"/>
       <c r="T10" s="16"/>
@@ -3697,20 +3974,20 @@
       <c r="AI10" s="18"/>
     </row>
     <row r="11" spans="2:35" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="78"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
       <c r="Q11" s="18"/>
       <c r="S11" s="17"/>
       <c r="T11" s="16"/>
@@ -3736,19 +4013,19 @@
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="75" t="s">
+      <c r="H12" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="75" t="s">
+      <c r="M12" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
       <c r="Q12" s="18"/>
       <c r="S12" s="17"/>
       <c r="T12" s="16"/>
@@ -3774,15 +4051,15 @@
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="16"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
       <c r="Q13" s="18"/>
       <c r="S13" s="17"/>
       <c r="T13" s="16"/>
@@ -3803,25 +4080,25 @@
       <c r="AI13" s="18"/>
     </row>
     <row r="14" spans="2:35" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="H14" s="75" t="s">
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
+      <c r="H14" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="74" t="s">
+      <c r="M14" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
       <c r="S14" s="2"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -3841,18 +4118,18 @@
       <c r="AI14" s="4"/>
     </row>
     <row r="15" spans="2:35" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
     </row>
     <row r="16" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
@@ -3867,18 +4144,18 @@
       <c r="E17" s="13"/>
     </row>
     <row r="18" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
     </row>
     <row r="19" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
@@ -3893,18 +4170,18 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
     </row>
     <row r="23" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
@@ -3919,40 +4196,40 @@
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="34"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="33"/>
     </row>
     <row r="27" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="71"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="37"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="78"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="36"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C28" s="6"/>
@@ -3961,18 +4238,18 @@
       <c r="C29" s="6"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
@@ -3981,18 +4258,18 @@
       <c r="C33" s="6"/>
     </row>
     <row r="34" spans="2:80" x14ac:dyDescent="0.25">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="45"/>
     </row>
     <row r="35" spans="2:80" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
     </row>
     <row r="36" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C36" s="6"/>
@@ -4001,54 +4278,54 @@
       <c r="C37" s="6"/>
     </row>
     <row r="38" spans="2:80" x14ac:dyDescent="0.25">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="22"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="20" t="s">
+      <c r="L38" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="22"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="45"/>
       <c r="P38" s="11"/>
-      <c r="Q38" s="20" t="s">
+      <c r="Q38" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="22"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="45"/>
       <c r="U38" s="11"/>
-      <c r="V38" s="20" t="s">
+      <c r="V38" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="22"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="45"/>
       <c r="Z38" s="11"/>
-      <c r="AA38" s="20" t="s">
+      <c r="AA38" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="22"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="45"/>
       <c r="AE38" s="8"/>
-      <c r="AF38" s="32" t="s">
+      <c r="AF38" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AG38" s="33"/>
-      <c r="AH38" s="33"/>
-      <c r="AI38" s="34"/>
+      <c r="AG38" s="32"/>
+      <c r="AH38" s="32"/>
+      <c r="AI38" s="33"/>
       <c r="AJ38" s="8"/>
       <c r="AK38" s="11"/>
       <c r="AL38" s="11"/>
@@ -4070,90 +4347,90 @@
       <c r="BB38" s="11"/>
       <c r="BC38" s="11"/>
       <c r="BD38" s="11"/>
-      <c r="BE38" s="20" t="s">
+      <c r="BE38" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="BF38" s="21"/>
-      <c r="BG38" s="21"/>
-      <c r="BH38" s="22"/>
+      <c r="BF38" s="44"/>
+      <c r="BG38" s="44"/>
+      <c r="BH38" s="45"/>
       <c r="BI38" s="9"/>
-      <c r="BJ38" s="20" t="s">
+      <c r="BJ38" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="BK38" s="21"/>
-      <c r="BL38" s="21"/>
-      <c r="BM38" s="22"/>
+      <c r="BK38" s="44"/>
+      <c r="BL38" s="44"/>
+      <c r="BM38" s="45"/>
       <c r="BN38" s="8"/>
-      <c r="BO38" s="20" t="s">
+      <c r="BO38" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="BP38" s="21"/>
-      <c r="BQ38" s="21"/>
-      <c r="BR38" s="22"/>
+      <c r="BP38" s="44"/>
+      <c r="BQ38" s="44"/>
+      <c r="BR38" s="45"/>
       <c r="BS38" s="10"/>
-      <c r="BT38" s="20" t="s">
+      <c r="BT38" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="BU38" s="21"/>
-      <c r="BV38" s="21"/>
-      <c r="BW38" s="22"/>
+      <c r="BU38" s="44"/>
+      <c r="BV38" s="44"/>
+      <c r="BW38" s="45"/>
       <c r="BX38" s="10"/>
-      <c r="BY38" s="20" t="s">
+      <c r="BY38" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="BZ38" s="21"/>
-      <c r="CA38" s="21"/>
-      <c r="CB38" s="22"/>
+      <c r="BZ38" s="44"/>
+      <c r="CA38" s="44"/>
+      <c r="CB38" s="45"/>
     </row>
     <row r="39" spans="2:80" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="25"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="25"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="25"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="25"/>
-      <c r="AA39" s="23"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="25"/>
-      <c r="AF39" s="35"/>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="36"/>
-      <c r="AI39" s="37"/>
-      <c r="BE39" s="23"/>
-      <c r="BF39" s="24"/>
-      <c r="BG39" s="24"/>
-      <c r="BH39" s="25"/>
-      <c r="BJ39" s="23"/>
-      <c r="BK39" s="24"/>
-      <c r="BL39" s="24"/>
-      <c r="BM39" s="25"/>
-      <c r="BO39" s="23"/>
-      <c r="BP39" s="24"/>
-      <c r="BQ39" s="24"/>
-      <c r="BR39" s="25"/>
-      <c r="BT39" s="23"/>
-      <c r="BU39" s="24"/>
-      <c r="BV39" s="24"/>
-      <c r="BW39" s="25"/>
-      <c r="BY39" s="23"/>
-      <c r="BZ39" s="24"/>
-      <c r="CA39" s="24"/>
-      <c r="CB39" s="25"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="48"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="48"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="48"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="48"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="48"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="48"/>
+      <c r="AF39" s="34"/>
+      <c r="AG39" s="35"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="36"/>
+      <c r="BE39" s="46"/>
+      <c r="BF39" s="47"/>
+      <c r="BG39" s="47"/>
+      <c r="BH39" s="48"/>
+      <c r="BJ39" s="46"/>
+      <c r="BK39" s="47"/>
+      <c r="BL39" s="47"/>
+      <c r="BM39" s="48"/>
+      <c r="BO39" s="46"/>
+      <c r="BP39" s="47"/>
+      <c r="BQ39" s="47"/>
+      <c r="BR39" s="48"/>
+      <c r="BT39" s="46"/>
+      <c r="BU39" s="47"/>
+      <c r="BV39" s="47"/>
+      <c r="BW39" s="48"/>
+      <c r="BY39" s="46"/>
+      <c r="BZ39" s="47"/>
+      <c r="CA39" s="47"/>
+      <c r="CB39" s="48"/>
     </row>
     <row r="40" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C40" s="6"/>
@@ -4170,58 +4447,58 @@
       <c r="BP41" s="7"/>
     </row>
     <row r="42" spans="2:80" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
-      <c r="G42" s="20" t="s">
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="45"/>
+      <c r="G42" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="22"/>
-      <c r="L42" s="32" t="s">
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="45"/>
+      <c r="L42" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="34"/>
-      <c r="BE42" s="38" t="s">
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="33"/>
+      <c r="BE42" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="BF42" s="39"/>
-      <c r="BG42" s="39"/>
-      <c r="BH42" s="40"/>
-      <c r="BO42" s="20" t="s">
+      <c r="BF42" s="56"/>
+      <c r="BG42" s="56"/>
+      <c r="BH42" s="57"/>
+      <c r="BO42" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="BP42" s="21"/>
-      <c r="BQ42" s="21"/>
-      <c r="BR42" s="22"/>
+      <c r="BP42" s="44"/>
+      <c r="BQ42" s="44"/>
+      <c r="BR42" s="45"/>
     </row>
     <row r="43" spans="2:80" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="25"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="25"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="37"/>
-      <c r="BE43" s="41"/>
-      <c r="BF43" s="42"/>
-      <c r="BG43" s="42"/>
-      <c r="BH43" s="43"/>
-      <c r="BO43" s="23"/>
-      <c r="BP43" s="24"/>
-      <c r="BQ43" s="24"/>
-      <c r="BR43" s="25"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="48"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="48"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="36"/>
+      <c r="BE43" s="58"/>
+      <c r="BF43" s="59"/>
+      <c r="BG43" s="59"/>
+      <c r="BH43" s="60"/>
+      <c r="BO43" s="46"/>
+      <c r="BP43" s="47"/>
+      <c r="BQ43" s="47"/>
+      <c r="BR43" s="48"/>
     </row>
     <row r="44" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C44" s="5"/>
@@ -4232,83 +4509,83 @@
       <c r="BF45" s="6"/>
     </row>
     <row r="46" spans="2:80" x14ac:dyDescent="0.25">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="45"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="22"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="45"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="44" t="s">
+      <c r="L46" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="46"/>
-      <c r="BE46" s="20" t="s">
+      <c r="M46" s="62"/>
+      <c r="N46" s="62"/>
+      <c r="O46" s="63"/>
+      <c r="BE46" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="BF46" s="21"/>
-      <c r="BG46" s="21"/>
-      <c r="BH46" s="22"/>
+      <c r="BF46" s="44"/>
+      <c r="BG46" s="44"/>
+      <c r="BH46" s="45"/>
       <c r="BI46" s="10"/>
-      <c r="BJ46" s="50" t="s">
+      <c r="BJ46" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="BK46" s="51"/>
-      <c r="BL46" s="51"/>
-      <c r="BM46" s="52"/>
+      <c r="BK46" s="38"/>
+      <c r="BL46" s="38"/>
+      <c r="BM46" s="39"/>
       <c r="BN46" s="10"/>
-      <c r="BO46" s="20" t="s">
+      <c r="BO46" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="BP46" s="21"/>
-      <c r="BQ46" s="21"/>
-      <c r="BR46" s="22"/>
+      <c r="BP46" s="44"/>
+      <c r="BQ46" s="44"/>
+      <c r="BR46" s="45"/>
       <c r="BS46" s="10"/>
-      <c r="BT46" s="62" t="s">
+      <c r="BT46" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="BU46" s="63"/>
-      <c r="BV46" s="63"/>
-      <c r="BW46" s="64"/>
+      <c r="BU46" s="89"/>
+      <c r="BV46" s="89"/>
+      <c r="BW46" s="90"/>
     </row>
     <row r="47" spans="2:80" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="25"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="25"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="49"/>
-      <c r="BE47" s="23"/>
-      <c r="BF47" s="24"/>
-      <c r="BG47" s="24"/>
-      <c r="BH47" s="25"/>
-      <c r="BJ47" s="53"/>
-      <c r="BK47" s="54"/>
-      <c r="BL47" s="54"/>
-      <c r="BM47" s="55"/>
-      <c r="BO47" s="23"/>
-      <c r="BP47" s="24"/>
-      <c r="BQ47" s="24"/>
-      <c r="BR47" s="25"/>
-      <c r="BT47" s="65"/>
-      <c r="BU47" s="66"/>
-      <c r="BV47" s="66"/>
-      <c r="BW47" s="67"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="48"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="48"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="66"/>
+      <c r="BE47" s="46"/>
+      <c r="BF47" s="47"/>
+      <c r="BG47" s="47"/>
+      <c r="BH47" s="48"/>
+      <c r="BJ47" s="40"/>
+      <c r="BK47" s="41"/>
+      <c r="BL47" s="41"/>
+      <c r="BM47" s="42"/>
+      <c r="BO47" s="46"/>
+      <c r="BP47" s="47"/>
+      <c r="BQ47" s="47"/>
+      <c r="BR47" s="48"/>
+      <c r="BT47" s="91"/>
+      <c r="BU47" s="92"/>
+      <c r="BV47" s="92"/>
+      <c r="BW47" s="93"/>
     </row>
     <row r="48" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C48" s="5"/>
@@ -4324,39 +4601,39 @@
     </row>
     <row r="50" spans="2:75" x14ac:dyDescent="0.25">
       <c r="C50" s="6"/>
-      <c r="G50" s="26" t="s">
+      <c r="G50" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="28"/>
-      <c r="BE50" s="20" t="s">
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="69"/>
+      <c r="BE50" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="BF50" s="21"/>
-      <c r="BG50" s="21"/>
-      <c r="BH50" s="22"/>
-      <c r="BT50" s="62" t="s">
+      <c r="BF50" s="44"/>
+      <c r="BG50" s="44"/>
+      <c r="BH50" s="45"/>
+      <c r="BT50" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="BU50" s="63"/>
-      <c r="BV50" s="63"/>
-      <c r="BW50" s="64"/>
+      <c r="BU50" s="89"/>
+      <c r="BV50" s="89"/>
+      <c r="BW50" s="90"/>
     </row>
     <row r="51" spans="2:75" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="6"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="31"/>
-      <c r="BE51" s="23"/>
-      <c r="BF51" s="24"/>
-      <c r="BG51" s="24"/>
-      <c r="BH51" s="25"/>
-      <c r="BT51" s="65"/>
-      <c r="BU51" s="66"/>
-      <c r="BV51" s="66"/>
-      <c r="BW51" s="67"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="72"/>
+      <c r="BE51" s="46"/>
+      <c r="BF51" s="47"/>
+      <c r="BG51" s="47"/>
+      <c r="BH51" s="48"/>
+      <c r="BT51" s="91"/>
+      <c r="BU51" s="92"/>
+      <c r="BV51" s="92"/>
+      <c r="BW51" s="93"/>
     </row>
     <row r="52" spans="2:75" x14ac:dyDescent="0.25">
       <c r="C52" s="6"/>
@@ -4369,115 +4646,115 @@
       <c r="BU53" s="7"/>
     </row>
     <row r="54" spans="2:75" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="45"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="50" t="s">
+      <c r="G54" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="52"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="39"/>
       <c r="K54" s="10"/>
-      <c r="L54" s="38" t="s">
+      <c r="L54" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="40"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="57"/>
       <c r="P54" s="10"/>
-      <c r="Q54" s="44" t="s">
+      <c r="Q54" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="R54" s="45"/>
-      <c r="S54" s="45"/>
-      <c r="T54" s="46"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="63"/>
       <c r="U54" s="10"/>
-      <c r="V54" s="56" t="s">
+      <c r="V54" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="W54" s="57"/>
-      <c r="X54" s="57"/>
-      <c r="Y54" s="58"/>
+      <c r="W54" s="50"/>
+      <c r="X54" s="50"/>
+      <c r="Y54" s="51"/>
       <c r="Z54" s="10"/>
-      <c r="AA54" s="26" t="s">
+      <c r="AA54" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="AB54" s="27"/>
-      <c r="AC54" s="27"/>
-      <c r="AD54" s="28"/>
+      <c r="AB54" s="68"/>
+      <c r="AC54" s="68"/>
+      <c r="AD54" s="69"/>
       <c r="AE54" s="10"/>
-      <c r="AF54" s="56" t="s">
+      <c r="AF54" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="AG54" s="57"/>
-      <c r="AH54" s="57"/>
-      <c r="AI54" s="58"/>
-      <c r="BE54" s="20" t="s">
+      <c r="AG54" s="50"/>
+      <c r="AH54" s="50"/>
+      <c r="AI54" s="51"/>
+      <c r="BE54" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="BF54" s="21"/>
-      <c r="BG54" s="21"/>
-      <c r="BH54" s="22"/>
+      <c r="BF54" s="44"/>
+      <c r="BG54" s="44"/>
+      <c r="BH54" s="45"/>
       <c r="BI54" s="8"/>
-      <c r="BJ54" s="32" t="s">
+      <c r="BJ54" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="BK54" s="33"/>
-      <c r="BL54" s="33"/>
-      <c r="BM54" s="34"/>
-      <c r="BT54" s="38" t="s">
+      <c r="BK54" s="32"/>
+      <c r="BL54" s="32"/>
+      <c r="BM54" s="33"/>
+      <c r="BT54" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="BU54" s="39"/>
-      <c r="BV54" s="39"/>
-      <c r="BW54" s="40"/>
+      <c r="BU54" s="56"/>
+      <c r="BV54" s="56"/>
+      <c r="BW54" s="57"/>
     </row>
     <row r="55" spans="2:75" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="25"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="55"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="42"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="43"/>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="48"/>
-      <c r="S55" s="48"/>
-      <c r="T55" s="49"/>
-      <c r="V55" s="59"/>
-      <c r="W55" s="60"/>
-      <c r="X55" s="60"/>
-      <c r="Y55" s="61"/>
-      <c r="AA55" s="29"/>
-      <c r="AB55" s="30"/>
-      <c r="AC55" s="30"/>
-      <c r="AD55" s="31"/>
-      <c r="AF55" s="59"/>
-      <c r="AG55" s="60"/>
-      <c r="AH55" s="60"/>
-      <c r="AI55" s="61"/>
-      <c r="BE55" s="23"/>
-      <c r="BF55" s="24"/>
-      <c r="BG55" s="24"/>
-      <c r="BH55" s="25"/>
-      <c r="BJ55" s="35"/>
-      <c r="BK55" s="36"/>
-      <c r="BL55" s="36"/>
-      <c r="BM55" s="37"/>
-      <c r="BT55" s="41"/>
-      <c r="BU55" s="42"/>
-      <c r="BV55" s="42"/>
-      <c r="BW55" s="43"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="48"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="42"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="60"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="65"/>
+      <c r="S55" s="65"/>
+      <c r="T55" s="66"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="53"/>
+      <c r="X55" s="53"/>
+      <c r="Y55" s="54"/>
+      <c r="AA55" s="70"/>
+      <c r="AB55" s="71"/>
+      <c r="AC55" s="71"/>
+      <c r="AD55" s="72"/>
+      <c r="AF55" s="52"/>
+      <c r="AG55" s="53"/>
+      <c r="AH55" s="53"/>
+      <c r="AI55" s="54"/>
+      <c r="BE55" s="46"/>
+      <c r="BF55" s="47"/>
+      <c r="BG55" s="47"/>
+      <c r="BH55" s="48"/>
+      <c r="BJ55" s="34"/>
+      <c r="BK55" s="35"/>
+      <c r="BL55" s="35"/>
+      <c r="BM55" s="36"/>
+      <c r="BT55" s="58"/>
+      <c r="BU55" s="59"/>
+      <c r="BV55" s="59"/>
+      <c r="BW55" s="60"/>
     </row>
     <row r="56" spans="2:75" x14ac:dyDescent="0.25">
       <c r="C56" s="6"/>
@@ -4488,171 +4765,171 @@
       <c r="BF57" s="7"/>
     </row>
     <row r="58" spans="2:75" x14ac:dyDescent="0.25">
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="45"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="22"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="45"/>
       <c r="K58" s="10"/>
-      <c r="L58" s="20" t="s">
+      <c r="L58" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="22"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="45"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="50" t="s">
+      <c r="Q58" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="R58" s="51"/>
-      <c r="S58" s="51"/>
-      <c r="T58" s="52"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="39"/>
       <c r="U58" s="11"/>
-      <c r="V58" s="38" t="s">
+      <c r="V58" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="40"/>
+      <c r="W58" s="56"/>
+      <c r="X58" s="56"/>
+      <c r="Y58" s="57"/>
       <c r="Z58" s="9"/>
-      <c r="AA58" s="44" t="s">
+      <c r="AA58" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="AB58" s="45"/>
-      <c r="AC58" s="45"/>
-      <c r="AD58" s="46"/>
+      <c r="AB58" s="62"/>
+      <c r="AC58" s="62"/>
+      <c r="AD58" s="63"/>
       <c r="AE58" s="10"/>
-      <c r="AF58" s="56" t="s">
+      <c r="AF58" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AG58" s="57"/>
-      <c r="AH58" s="57"/>
-      <c r="AI58" s="58"/>
+      <c r="AG58" s="50"/>
+      <c r="AH58" s="50"/>
+      <c r="AI58" s="51"/>
       <c r="AJ58" s="10"/>
-      <c r="AK58" s="20" t="s">
+      <c r="AK58" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AL58" s="21"/>
-      <c r="AM58" s="21"/>
-      <c r="AN58" s="22"/>
+      <c r="AL58" s="44"/>
+      <c r="AM58" s="44"/>
+      <c r="AN58" s="45"/>
       <c r="AO58" s="10"/>
-      <c r="AP58" s="50" t="s">
+      <c r="AP58" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AQ58" s="51"/>
-      <c r="AR58" s="51"/>
-      <c r="AS58" s="52"/>
+      <c r="AQ58" s="38"/>
+      <c r="AR58" s="38"/>
+      <c r="AS58" s="39"/>
       <c r="AT58" s="10"/>
-      <c r="AU58" s="26" t="s">
+      <c r="AU58" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="AV58" s="27"/>
-      <c r="AW58" s="27"/>
-      <c r="AX58" s="28"/>
+      <c r="AV58" s="68"/>
+      <c r="AW58" s="68"/>
+      <c r="AX58" s="69"/>
       <c r="AY58" s="10"/>
-      <c r="AZ58" s="56" t="s">
+      <c r="AZ58" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="BA58" s="57"/>
-      <c r="BB58" s="57"/>
-      <c r="BC58" s="58"/>
-      <c r="BE58" s="20" t="s">
+      <c r="BA58" s="50"/>
+      <c r="BB58" s="50"/>
+      <c r="BC58" s="51"/>
+      <c r="BE58" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="BF58" s="21"/>
-      <c r="BG58" s="21"/>
-      <c r="BH58" s="22"/>
+      <c r="BF58" s="44"/>
+      <c r="BG58" s="44"/>
+      <c r="BH58" s="45"/>
       <c r="BI58" s="10"/>
-      <c r="BJ58" s="20" t="s">
+      <c r="BJ58" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="BK58" s="21"/>
-      <c r="BL58" s="21"/>
-      <c r="BM58" s="22"/>
+      <c r="BK58" s="44"/>
+      <c r="BL58" s="44"/>
+      <c r="BM58" s="45"/>
       <c r="BN58" s="10"/>
-      <c r="BO58" s="26" t="s">
+      <c r="BO58" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="BP58" s="27"/>
-      <c r="BQ58" s="27"/>
-      <c r="BR58" s="28"/>
+      <c r="BP58" s="68"/>
+      <c r="BQ58" s="68"/>
+      <c r="BR58" s="69"/>
       <c r="BS58" s="10"/>
-      <c r="BT58" s="32" t="s">
+      <c r="BT58" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="BU58" s="33"/>
-      <c r="BV58" s="33"/>
-      <c r="BW58" s="34"/>
+      <c r="BU58" s="32"/>
+      <c r="BV58" s="32"/>
+      <c r="BW58" s="33"/>
     </row>
     <row r="59" spans="2:75" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="25"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="25"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="25"/>
-      <c r="Q59" s="53"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="54"/>
-      <c r="T59" s="55"/>
-      <c r="V59" s="41"/>
-      <c r="W59" s="42"/>
-      <c r="X59" s="42"/>
-      <c r="Y59" s="43"/>
-      <c r="AA59" s="47"/>
-      <c r="AB59" s="48"/>
-      <c r="AC59" s="48"/>
-      <c r="AD59" s="49"/>
-      <c r="AF59" s="59"/>
-      <c r="AG59" s="60"/>
-      <c r="AH59" s="60"/>
-      <c r="AI59" s="61"/>
-      <c r="AK59" s="23"/>
-      <c r="AL59" s="24"/>
-      <c r="AM59" s="24"/>
-      <c r="AN59" s="25"/>
-      <c r="AP59" s="53"/>
-      <c r="AQ59" s="54"/>
-      <c r="AR59" s="54"/>
-      <c r="AS59" s="55"/>
-      <c r="AU59" s="29"/>
-      <c r="AV59" s="30"/>
-      <c r="AW59" s="30"/>
-      <c r="AX59" s="31"/>
-      <c r="AZ59" s="59"/>
-      <c r="BA59" s="60"/>
-      <c r="BB59" s="60"/>
-      <c r="BC59" s="61"/>
-      <c r="BE59" s="23"/>
-      <c r="BF59" s="24"/>
-      <c r="BG59" s="24"/>
-      <c r="BH59" s="25"/>
-      <c r="BJ59" s="23"/>
-      <c r="BK59" s="24"/>
-      <c r="BL59" s="24"/>
-      <c r="BM59" s="25"/>
-      <c r="BO59" s="29"/>
-      <c r="BP59" s="30"/>
-      <c r="BQ59" s="30"/>
-      <c r="BR59" s="31"/>
-      <c r="BT59" s="35"/>
-      <c r="BU59" s="36"/>
-      <c r="BV59" s="36"/>
-      <c r="BW59" s="37"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="48"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="48"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="48"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="41"/>
+      <c r="S59" s="41"/>
+      <c r="T59" s="42"/>
+      <c r="V59" s="58"/>
+      <c r="W59" s="59"/>
+      <c r="X59" s="59"/>
+      <c r="Y59" s="60"/>
+      <c r="AA59" s="64"/>
+      <c r="AB59" s="65"/>
+      <c r="AC59" s="65"/>
+      <c r="AD59" s="66"/>
+      <c r="AF59" s="52"/>
+      <c r="AG59" s="53"/>
+      <c r="AH59" s="53"/>
+      <c r="AI59" s="54"/>
+      <c r="AK59" s="46"/>
+      <c r="AL59" s="47"/>
+      <c r="AM59" s="47"/>
+      <c r="AN59" s="48"/>
+      <c r="AP59" s="40"/>
+      <c r="AQ59" s="41"/>
+      <c r="AR59" s="41"/>
+      <c r="AS59" s="42"/>
+      <c r="AU59" s="70"/>
+      <c r="AV59" s="71"/>
+      <c r="AW59" s="71"/>
+      <c r="AX59" s="72"/>
+      <c r="AZ59" s="52"/>
+      <c r="BA59" s="53"/>
+      <c r="BB59" s="53"/>
+      <c r="BC59" s="54"/>
+      <c r="BE59" s="46"/>
+      <c r="BF59" s="47"/>
+      <c r="BG59" s="47"/>
+      <c r="BH59" s="48"/>
+      <c r="BJ59" s="46"/>
+      <c r="BK59" s="47"/>
+      <c r="BL59" s="47"/>
+      <c r="BM59" s="48"/>
+      <c r="BO59" s="70"/>
+      <c r="BP59" s="71"/>
+      <c r="BQ59" s="71"/>
+      <c r="BR59" s="72"/>
+      <c r="BT59" s="34"/>
+      <c r="BU59" s="35"/>
+      <c r="BV59" s="35"/>
+      <c r="BW59" s="36"/>
     </row>
     <row r="60" spans="2:75" x14ac:dyDescent="0.25">
       <c r="C60" s="5"/>
@@ -4663,72 +4940,72 @@
       <c r="AL61" s="7"/>
     </row>
     <row r="62" spans="2:75" x14ac:dyDescent="0.25">
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="45"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="26" t="s">
+      <c r="G62" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="28"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="69"/>
       <c r="K62" s="10"/>
-      <c r="L62" s="32" t="s">
+      <c r="L62" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="34"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="33"/>
       <c r="P62" s="10"/>
-      <c r="Q62" s="20" t="s">
+      <c r="Q62" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="22"/>
+      <c r="R62" s="44"/>
+      <c r="S62" s="44"/>
+      <c r="T62" s="45"/>
       <c r="U62" s="8"/>
-      <c r="V62" s="20" t="s">
+      <c r="V62" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="W62" s="21"/>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="22"/>
-      <c r="AK62" s="56" t="s">
+      <c r="W62" s="44"/>
+      <c r="X62" s="44"/>
+      <c r="Y62" s="45"/>
+      <c r="AK62" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AL62" s="57"/>
-      <c r="AM62" s="57"/>
-      <c r="AN62" s="58"/>
+      <c r="AL62" s="50"/>
+      <c r="AM62" s="50"/>
+      <c r="AN62" s="51"/>
     </row>
     <row r="63" spans="2:75" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="25"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="31"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="37"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24"/>
-      <c r="T63" s="25"/>
-      <c r="V63" s="23"/>
-      <c r="W63" s="24"/>
-      <c r="X63" s="24"/>
-      <c r="Y63" s="25"/>
-      <c r="AK63" s="59"/>
-      <c r="AL63" s="60"/>
-      <c r="AM63" s="60"/>
-      <c r="AN63" s="61"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="48"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="71"/>
+      <c r="J63" s="72"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="36"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="47"/>
+      <c r="S63" s="47"/>
+      <c r="T63" s="48"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="47"/>
+      <c r="X63" s="47"/>
+      <c r="Y63" s="48"/>
+      <c r="AK63" s="52"/>
+      <c r="AL63" s="53"/>
+      <c r="AM63" s="53"/>
+      <c r="AN63" s="54"/>
     </row>
     <row r="64" spans="2:75" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="5"/>
@@ -4737,29 +5014,29 @@
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="22"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="45"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="56" t="s">
+      <c r="G66" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="58"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="51"/>
     </row>
     <row r="67" spans="2:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="23"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="25"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="61"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="48"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="54"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C68" s="5"/>
@@ -4768,29 +5045,29 @@
       <c r="C69" s="6"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="22"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="45"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="32" t="s">
+      <c r="G70" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="34"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="33"/>
     </row>
     <row r="71" spans="2:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="23"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="25"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="37"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="48"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="36"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C72" s="6"/>
@@ -4807,18 +5084,18 @@
       <c r="P73" s="12"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="22"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
     </row>
     <row r="75" spans="2:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="23"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="25"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="48"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C76" s="5"/>
@@ -4827,40 +5104,40 @@
       <c r="C77" s="6"/>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="52"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="39"/>
       <c r="F78" s="10"/>
-      <c r="G78" s="26" t="s">
+      <c r="G78" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="28"/>
+      <c r="H78" s="68"/>
+      <c r="I78" s="68"/>
+      <c r="J78" s="69"/>
       <c r="K78" s="10"/>
-      <c r="L78" s="32" t="s">
+      <c r="L78" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="M78" s="33"/>
-      <c r="N78" s="33"/>
-      <c r="O78" s="34"/>
+      <c r="M78" s="32"/>
+      <c r="N78" s="32"/>
+      <c r="O78" s="33"/>
     </row>
     <row r="79" spans="2:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="53"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="55"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="31"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="37"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="42"/>
+      <c r="G79" s="70"/>
+      <c r="H79" s="71"/>
+      <c r="I79" s="71"/>
+      <c r="J79" s="72"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="36"/>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
@@ -4869,29 +5146,29 @@
       <c r="C81" s="6"/>
     </row>
     <row r="82" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="38" t="s">
+      <c r="B82" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="40"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="57"/>
       <c r="F82" s="10"/>
-      <c r="G82" s="20" t="s">
+      <c r="G82" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="22"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="45"/>
     </row>
     <row r="83" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="41"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="43"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="25"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="60"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="48"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C84" s="6"/>
@@ -4900,18 +5177,18 @@
       <c r="C85" s="6"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="44" t="s">
+      <c r="B86" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="46"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="63"/>
     </row>
     <row r="87" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="47"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="49"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="65"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="66"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C88" s="5"/>
@@ -4920,18 +5197,18 @@
       <c r="C89" s="6"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B90" s="26" t="s">
+      <c r="B90" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="28"/>
+      <c r="C90" s="68"/>
+      <c r="D90" s="68"/>
+      <c r="E90" s="69"/>
     </row>
     <row r="91" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="29"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="31"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="72"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C92" s="5"/>
@@ -4940,18 +5217,18 @@
       <c r="C93" s="6"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B94" s="56" t="s">
+      <c r="B94" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C94" s="57"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="58"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50"/>
+      <c r="E94" s="51"/>
     </row>
     <row r="95" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="59"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="61"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="54"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C96" s="5"/>
@@ -4960,18 +5237,18 @@
       <c r="C97" s="7"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="22"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="45"/>
     </row>
     <row r="99" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="23"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="25"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="48"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C100" s="5"/>
@@ -4980,18 +5257,18 @@
       <c r="C101" s="7"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C102" s="21"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="22"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="45"/>
     </row>
     <row r="103" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="23"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="25"/>
+      <c r="B103" s="46"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="48"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C104" s="5"/>
@@ -5000,18 +5277,18 @@
       <c r="C105" s="7"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="50" t="s">
+      <c r="B106" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51"/>
-      <c r="E106" s="52"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="39"/>
     </row>
     <row r="107" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="53"/>
-      <c r="C107" s="54"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="55"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="42"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C108" s="5"/>
@@ -5020,40 +5297,83 @@
       <c r="C109" s="7"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="22"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="45"/>
     </row>
     <row r="111" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="23"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="25"/>
+      <c r="B111" s="46"/>
+      <c r="C111" s="47"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="M12:P13"/>
-    <mergeCell ref="G2:Q4"/>
-    <mergeCell ref="G70:J71"/>
-    <mergeCell ref="L78:O79"/>
-    <mergeCell ref="BT58:BW59"/>
-    <mergeCell ref="B106:E107"/>
-    <mergeCell ref="Q58:T59"/>
-    <mergeCell ref="AK58:AN59"/>
-    <mergeCell ref="Q62:T63"/>
-    <mergeCell ref="AF58:AI59"/>
-    <mergeCell ref="AK62:AN63"/>
-    <mergeCell ref="AP58:AS59"/>
-    <mergeCell ref="V58:Y59"/>
-    <mergeCell ref="AA58:AD59"/>
-    <mergeCell ref="AU58:AX59"/>
-    <mergeCell ref="AZ58:BC59"/>
-    <mergeCell ref="BO58:BR59"/>
-    <mergeCell ref="L62:O63"/>
+    <mergeCell ref="B34:E35"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="BE58:BH59"/>
+    <mergeCell ref="BJ54:BM55"/>
+    <mergeCell ref="BT54:BW55"/>
+    <mergeCell ref="L38:O39"/>
+    <mergeCell ref="L42:O43"/>
+    <mergeCell ref="L26:O27"/>
+    <mergeCell ref="BE54:BH55"/>
+    <mergeCell ref="G50:J51"/>
+    <mergeCell ref="V54:Y55"/>
+    <mergeCell ref="G54:J55"/>
+    <mergeCell ref="L54:O55"/>
+    <mergeCell ref="AA54:AD55"/>
+    <mergeCell ref="Q54:T55"/>
+    <mergeCell ref="AF54:AI55"/>
+    <mergeCell ref="BY38:CB39"/>
+    <mergeCell ref="BJ38:BM39"/>
+    <mergeCell ref="AA38:AD39"/>
+    <mergeCell ref="BE38:BH39"/>
+    <mergeCell ref="BE50:BH51"/>
+    <mergeCell ref="BO38:BR39"/>
+    <mergeCell ref="BT38:BW39"/>
+    <mergeCell ref="BO42:BR43"/>
+    <mergeCell ref="BO46:BR47"/>
+    <mergeCell ref="BE46:BH47"/>
+    <mergeCell ref="BT46:BW47"/>
+    <mergeCell ref="BE42:BH43"/>
+    <mergeCell ref="BT50:BW51"/>
+    <mergeCell ref="BJ46:BM47"/>
+    <mergeCell ref="B110:E111"/>
+    <mergeCell ref="V38:Y39"/>
+    <mergeCell ref="Q38:T39"/>
+    <mergeCell ref="G38:J39"/>
+    <mergeCell ref="B78:E79"/>
+    <mergeCell ref="B38:E39"/>
+    <mergeCell ref="B98:E99"/>
+    <mergeCell ref="B102:E103"/>
+    <mergeCell ref="B42:E43"/>
+    <mergeCell ref="G82:J83"/>
+    <mergeCell ref="B82:E83"/>
+    <mergeCell ref="V62:Y63"/>
+    <mergeCell ref="B86:E87"/>
+    <mergeCell ref="B90:E91"/>
+    <mergeCell ref="B94:E95"/>
+    <mergeCell ref="L58:O59"/>
+    <mergeCell ref="S2:AI4"/>
+    <mergeCell ref="G46:J47"/>
+    <mergeCell ref="Y6:AB7"/>
+    <mergeCell ref="T6:W7"/>
+    <mergeCell ref="AF38:AI39"/>
+    <mergeCell ref="G42:J43"/>
+    <mergeCell ref="G26:J27"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="M6:P7"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="M8:P9"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="M10:P11"/>
+    <mergeCell ref="M14:P15"/>
+    <mergeCell ref="L46:O47"/>
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="B6:E7"/>
     <mergeCell ref="B10:E11"/>
@@ -5070,71 +5390,28 @@
     <mergeCell ref="B62:E63"/>
     <mergeCell ref="B26:E27"/>
     <mergeCell ref="B30:E31"/>
-    <mergeCell ref="S2:AI4"/>
-    <mergeCell ref="G46:J47"/>
-    <mergeCell ref="Y6:AB7"/>
-    <mergeCell ref="T6:W7"/>
-    <mergeCell ref="AF38:AI39"/>
-    <mergeCell ref="G42:J43"/>
-    <mergeCell ref="G26:J27"/>
-    <mergeCell ref="H6:K7"/>
-    <mergeCell ref="M6:P7"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="M8:P9"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="M10:P11"/>
-    <mergeCell ref="M14:P15"/>
-    <mergeCell ref="B110:E111"/>
-    <mergeCell ref="V38:Y39"/>
-    <mergeCell ref="Q38:T39"/>
-    <mergeCell ref="G38:J39"/>
-    <mergeCell ref="B78:E79"/>
-    <mergeCell ref="B38:E39"/>
-    <mergeCell ref="B98:E99"/>
-    <mergeCell ref="B102:E103"/>
-    <mergeCell ref="B42:E43"/>
-    <mergeCell ref="G82:J83"/>
-    <mergeCell ref="B82:E83"/>
-    <mergeCell ref="V62:Y63"/>
-    <mergeCell ref="B86:E87"/>
-    <mergeCell ref="B90:E91"/>
-    <mergeCell ref="B94:E95"/>
-    <mergeCell ref="L58:O59"/>
-    <mergeCell ref="BY38:CB39"/>
-    <mergeCell ref="BJ38:BM39"/>
-    <mergeCell ref="AA38:AD39"/>
-    <mergeCell ref="BE38:BH39"/>
-    <mergeCell ref="BE50:BH51"/>
-    <mergeCell ref="BO38:BR39"/>
-    <mergeCell ref="BT38:BW39"/>
-    <mergeCell ref="BO42:BR43"/>
-    <mergeCell ref="BO46:BR47"/>
-    <mergeCell ref="BE46:BH47"/>
-    <mergeCell ref="BT46:BW47"/>
-    <mergeCell ref="BE42:BH43"/>
-    <mergeCell ref="BT50:BW51"/>
+    <mergeCell ref="BT58:BW59"/>
+    <mergeCell ref="B106:E107"/>
+    <mergeCell ref="Q58:T59"/>
+    <mergeCell ref="AK58:AN59"/>
+    <mergeCell ref="Q62:T63"/>
+    <mergeCell ref="AF58:AI59"/>
+    <mergeCell ref="AK62:AN63"/>
+    <mergeCell ref="AP58:AS59"/>
+    <mergeCell ref="V58:Y59"/>
+    <mergeCell ref="AA58:AD59"/>
+    <mergeCell ref="AU58:AX59"/>
+    <mergeCell ref="AZ58:BC59"/>
+    <mergeCell ref="BO58:BR59"/>
+    <mergeCell ref="L62:O63"/>
     <mergeCell ref="B66:E67"/>
     <mergeCell ref="BJ58:BM59"/>
-    <mergeCell ref="L46:O47"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="M12:P13"/>
+    <mergeCell ref="G2:Q4"/>
+    <mergeCell ref="G70:J71"/>
+    <mergeCell ref="L78:O79"/>
     <mergeCell ref="G62:J63"/>
-    <mergeCell ref="BJ46:BM47"/>
-    <mergeCell ref="BE54:BH55"/>
-    <mergeCell ref="G50:J51"/>
-    <mergeCell ref="V54:Y55"/>
-    <mergeCell ref="G54:J55"/>
-    <mergeCell ref="L54:O55"/>
-    <mergeCell ref="AA54:AD55"/>
-    <mergeCell ref="Q54:T55"/>
-    <mergeCell ref="AF54:AI55"/>
-    <mergeCell ref="B34:E35"/>
-    <mergeCell ref="B18:E19"/>
-    <mergeCell ref="BE58:BH59"/>
-    <mergeCell ref="BJ54:BM55"/>
-    <mergeCell ref="BT54:BW55"/>
-    <mergeCell ref="L38:O39"/>
-    <mergeCell ref="L42:O43"/>
-    <mergeCell ref="L26:O27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5142,18 +5419,456 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:X27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="19"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="G2" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="24"/>
+      <c r="S2" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="108"/>
+    </row>
+    <row r="3" spans="2:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="27"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="111"/>
+    </row>
+    <row r="4" spans="2:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="30"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="113"/>
+      <c r="W4" s="113"/>
+      <c r="X4" s="114"/>
+    </row>
+    <row r="5" spans="2:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="18"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="117"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="102"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="18"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="119"/>
+    </row>
+    <row r="7" spans="2:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="103"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="105"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="18"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="104"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="119"/>
+    </row>
+    <row r="8" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="18"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="119"/>
+    </row>
+    <row r="9" spans="2:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="18"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="96"/>
+      <c r="X9" s="119"/>
+    </row>
+    <row r="10" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="18"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="119"/>
+    </row>
+    <row r="11" spans="2:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="105"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="18"/>
+      <c r="S11" s="121"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="122"/>
+      <c r="W11" s="122"/>
+      <c r="X11" s="123"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="18"/>
+    </row>
+    <row r="13" spans="2:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="18"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="2:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="103"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
+    </row>
+    <row r="19" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+    </row>
+    <row r="23" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
+    </row>
+    <row r="27" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="76"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="M14:P15"/>
+    <mergeCell ref="S2:X4"/>
+    <mergeCell ref="T6:W7"/>
+    <mergeCell ref="T9:W10"/>
+    <mergeCell ref="B26:E27"/>
+    <mergeCell ref="G2:Q4"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="M6:P7"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="M8:P9"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="M10:P11"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="M12:P13"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="B22:E23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>